--- a/data/trans_camb/P18_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,07</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,89</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,61</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 3,33</t>
+          <t>-2,82; 15,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 4,99</t>
+          <t>-6,54; 13,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 7,33</t>
+          <t>-8,89; 13,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 27,48</t>
+          <t>-9,39; 12,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 1,87</t>
+          <t>-15,92; 10,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 16,37</t>
+          <t>1,41; 29,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 11,44</t>
+          <t>-2,04; 19,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 20,57</t>
+          <t>-16,11; 5,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -0,04</t>
+          <t>-10,5; 10,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 6,49</t>
+          <t>-14,26; 8,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 5,83</t>
+          <t>-9,09; 13,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 19,59</t>
+          <t>-3,61; 20,33</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 14,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 6,37</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 8,64</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 6,46</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 8,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 21,06</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,63%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,09%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>19,75%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 14,66</t>
+          <t>-3,71; 23,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 21,17</t>
+          <t>-8,7; 19,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 33,9</t>
+          <t>-11,68; 19,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 121,83</t>
+          <t>-12,37; 18,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 8,54</t>
+          <t>-19,98; 14,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 64,46</t>
+          <t>2,02; 59,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 45,34</t>
+          <t>-2,76; 30,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 75,7</t>
+          <t>-21,89; 9,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,22; -0,13</t>
+          <t>-14,34; 16,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 25,13</t>
+          <t>-19,8; 13,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 22,46</t>
+          <t>-12,95; 23,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 74,05</t>
+          <t>-5,49; 38,01</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 22,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 9,36</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 12,71</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 9,51</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-12,37; 12,72</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 40,14</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,72</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-13,37</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-4,88</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 2,19</t>
+          <t>-1,63; 13,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 15,85</t>
+          <t>-17,29; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 5,32</t>
+          <t>-6,67; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 18,37</t>
+          <t>-36,55; -4,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 6,89</t>
+          <t>-14,67; 20,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 10,49</t>
+          <t>-19,54; 4,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 15,79</t>
+          <t>-7,14; 9,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 18,49</t>
+          <t>-10,53; 4,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 2,29</t>
+          <t>-14,8; 1,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 10,34</t>
+          <t>-17,99; 0,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 8,11</t>
+          <t>-13,48; 7,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 15,6</t>
+          <t>-12,44; 8,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 8,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 1,36</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 2,96</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-25,37; -5,16</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 12,53</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 4,12</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,72%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>-20,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,8%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>-9,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>-11,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-5,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-16,42%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-1,06%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-6,77%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 18,73</t>
+          <t>-1,86; 16,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 137,12</t>
+          <t>-20,27; 4,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 42,78</t>
+          <t>-7,51; 11,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 161,95</t>
+          <t>-43,35; -5,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 40,37</t>
+          <t>-19,08; 39,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 62,57</t>
+          <t>-24,72; 6,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 87,55</t>
+          <t>-8,81; 12,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 105,94</t>
+          <t>-12,97; 6,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 14,27</t>
+          <t>-18,05; 2,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 66,27</t>
+          <t>-22,01; 0,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 50,08</t>
+          <t>-18,0; 12,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 97,22</t>
+          <t>-16,77; 13,41</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 11,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 1,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 3,78</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-31,41; -6,96</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-13,3; 20,58</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-16,63; 6,32</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-8,67</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-7,08</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-5,51</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-8,89</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 13,79</t>
+          <t>-5,18; 9,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 8,77</t>
+          <t>-8,78; 5,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 13,38</t>
+          <t>-14,49; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 14,88</t>
+          <t>-17,44; 1,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 1,37</t>
+          <t>-17,15; 3,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 3,16</t>
+          <t>-18,55; 0,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 11,09</t>
+          <t>-1,22; 11,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,68</t>
+          <t>-2,84; 9,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,88</t>
+          <t>-10,66; 2,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,78</t>
+          <t>-13,67; 0,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,01</t>
+          <t>-12,23; 4,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,97</t>
+          <t>-17,1; 0,29</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 8,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 5,67</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 0,84</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; -1,87</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 0,72</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-15,41; -1,93</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>-6,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,26%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-9,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>-11,46%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-7,63%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-11,75%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 81,67</t>
+          <t>-6,11; 12,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 55,56</t>
+          <t>-10,29; 7,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 82,69</t>
+          <t>-17,55; 4,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 95,09</t>
+          <t>-20,82; 1,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 8,02</t>
+          <t>-22,5; 5,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 16,98</t>
+          <t>-23,58; 0,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 59,54</t>
+          <t>-1,46; 15,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 49,41</t>
+          <t>-3,56; 12,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 21,85</t>
+          <t>-13,2; 3,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 21,5</t>
+          <t>-17,03; 0,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 56,3</t>
+          <t>-16,82; 6,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 49,47</t>
+          <t>-21,77; 0,06</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 10,83</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 7,5</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 1,01</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-17,18; -2,44</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; 1,16</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-19,99; -2,9</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,63</t>
+          <t>-15,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-7,61</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-10,84</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-4,86</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 8,89</t>
+          <t>-9,07; 4,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 15,27</t>
+          <t>-15,33; -1,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 15,29</t>
+          <t>-16,02; -1,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 31,65</t>
+          <t>-24,73; -8,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 2,26</t>
+          <t>-14,51; 4,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 7,55</t>
+          <t>-7,87; 12,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 13,01</t>
+          <t>-3,38; 10,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 19,45</t>
+          <t>-7,5; 6,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 2,93</t>
+          <t>-13,57; -0,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 9,16</t>
+          <t>-13,88; 0,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 12,57</t>
+          <t>-13,23; 2,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 22,61</t>
+          <t>-9,05; 8,96</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 6,08</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 1,17</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; -2,44</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; -5,88</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-11,59; 1,6</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 7,76</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>-10,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>154,72%</t>
+          <t>-18,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-9,6%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>-7,51%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>-0,75%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-13,68%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 74,8</t>
+          <t>-10,43; 5,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,78; 125,53</t>
+          <t>-17,45; -1,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 129,32</t>
+          <t>-18,26; -1,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,79; 254,72</t>
+          <t>-28,32; -10,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 9,82</t>
+          <t>-19,46; 7,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 33,55</t>
+          <t>-11,79; 21,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 56,12</t>
+          <t>-4,41; 14,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,84; 85,47</t>
+          <t>-9,82; 8,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 16,48</t>
+          <t>-17,54; -0,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 50,93</t>
+          <t>-18,14; 0,88</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,32; 69,95</t>
+          <t>-19,08; 4,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>46,96; 119,56</t>
+          <t>-14,15; 15,53</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 7,85</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 1,54</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-15,54; -3,24</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-20,66; -7,61</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-16,02; 2,57</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 13,23</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>-12,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>-9,44</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>-1,11</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-9,06</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-6,24</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-9,48</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-10,29</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-9,12</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 11,55</t>
+          <t>-12,63; 2,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 12,4</t>
+          <t>-12,34; 0,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 12,06</t>
+          <t>-11,89; 0,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 19,87</t>
+          <t>-19,79; -4,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 8,43</t>
+          <t>-19,15; 0,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 6,58</t>
+          <t>-18,77; 0,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 14,0</t>
+          <t>-9,45; 6,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 17,16</t>
+          <t>-5,99; 8,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,84</t>
+          <t>-15,01; 1,12</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,84</t>
+          <t>-14,43; 2,56</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 11,77</t>
+          <t>-20,4; -1,26</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,58; 16,53</t>
+          <t>-19,54; -0,64</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 2,88</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 2,79</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; -1,05</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; -3,59</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-17,01; -3,46</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; -2,49</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>110,43%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>60,95%</t>
+          <t>-13,4%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-7,56%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-11,49%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-14,09%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-12,69%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 124,41</t>
+          <t>-13,82; 2,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 141,88</t>
+          <t>-13,85; 0,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 137,29</t>
+          <t>-13,04; 0,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,57; 210,15</t>
+          <t>-22,36; -5,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 44,37</t>
+          <t>-23,88; 0,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 32,3</t>
+          <t>-23,65; 0,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 74,74</t>
+          <t>-11,49; 9,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 82,47</t>
+          <t>-7,6; 11,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 52,07</t>
+          <t>-18,63; 1,74</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 52,15</t>
+          <t>-18,25; 3,55</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1,65; 78,01</t>
+          <t>-28,19; -2,38</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>22,02; 110,15</t>
+          <t>-27,26; -0,96</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 3,49</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 3,48</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; -1,29</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-17,78; -4,48</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-22,48; -5,0</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; -3,69</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>-14,85</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>15,46</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>-17,62</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>-8,36</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-7,57</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-7,73</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-13,4</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-7,58</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-11,19</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 13,59</t>
+          <t>-12,49; 8,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 15,22</t>
+          <t>-12,82; 5,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 13,08</t>
+          <t>-12,34; 5,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 11,63</t>
+          <t>-17,48; 1,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 13,97</t>
+          <t>-19,99; 2,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,54; 18,2</t>
+          <t>-25,61; -5,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 17,53</t>
+          <t>-12,9; 2,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,99; 25,37</t>
+          <t>-18,83; -3,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 10,36</t>
+          <t>-19,98; -2,83</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>1,05; 13,39</t>
+          <t>-28,34; -9,05</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>0,16; 12,99</t>
+          <t>-17,67; 4,88</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,91; 17,59</t>
+          <t>-20,32; 3,41</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 2,5</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; -1,38</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; -1,33</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-20,55; -5,89</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 1,12</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-19,57; -3,06</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>-9,75%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>-11,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>-18,16%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>74,14%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>-22,27%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>-10,04%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-4,31%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-9,33%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-9,53%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-11,18%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-15,68%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 110,51</t>
+          <t>-14,69; 10,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 123,66</t>
+          <t>-14,45; 7,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 108,08</t>
+          <t>-14,37; 7,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 97,63</t>
+          <t>-20,13; 2,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 79,15</t>
+          <t>-24,89; 2,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,93; 104,5</t>
+          <t>-29,73; -6,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,37; 99,25</t>
+          <t>-15,72; 3,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,51; 138,95</t>
+          <t>-23,32; -4,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 62,76</t>
+          <t>-24,23; -3,81</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>4,44; 83,49</t>
+          <t>-35,84; -11,73</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>0,31; 77,47</t>
+          <t>-26,21; 8,38</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>11,36; 100,64</t>
+          <t>-28,25; 6,61</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 3,19</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; -1,74</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; -1,82</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-24,91; -7,63</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-21,93; 1,65</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-26,14; -4,53</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-9,38</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-4,87</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,09</t>
+          <t>-2,48; 4,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,83</t>
+          <t>-6,96; 0,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,63</t>
+          <t>-7,05; 0,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,22</t>
+          <t>-14,53; -5,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,39</t>
+          <t>-10,21; 0,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,57</t>
+          <t>-8,89; 0,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,35</t>
+          <t>-1,31; 4,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>5,52; 13,16</t>
+          <t>-5,73; 0,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,07</t>
+          <t>-9,33; -3,17</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,92</t>
+          <t>-12,52; -5,59</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,64</t>
+          <t>-8,52; -0,66</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>7,25; 12,6</t>
+          <t>-8,32; 0,39</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 4,17</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; -0,76</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; -2,45</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; -6,7</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; -1,5</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; -1,07</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>-3,51%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>18,27%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>63,88%</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>-7,79%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>24,66%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>38,51%</t>
-        </is>
-      </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-11,67%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-3,81%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-6,19%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-11,85%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-6,98%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-6,01%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 18,83</t>
+          <t>-2,95; 5,57</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 44,3</t>
+          <t>-8,27; 0,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 41,79</t>
+          <t>-8,39; 0,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>37,93; 95,62</t>
+          <t>-17,45; -7,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 6,24</t>
+          <t>-13,51; 0,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 25,27</t>
+          <t>-11,98; 0,62</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,23; 42,31</t>
+          <t>-1,65; 6,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>21,95; 58,45</t>
+          <t>-7,47; 0,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 5,4</t>
+          <t>-12,16; -4,25</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>0,9; 24,46</t>
+          <t>-16,24; -7,44</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>9,92; 33,8</t>
+          <t>-12,44; -1,04</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>32,84; 64,0</t>
+          <t>-12,13; 0,76</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,31</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; -0,97</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; -3,12</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; -8,53</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; -2,35</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; -1,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
